--- a/excel_reports/Ken_Tomberlin.xlsx
+++ b/excel_reports/Ken_Tomberlin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9499" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9459" uniqueCount="2197">
   <si>
     <t>Policy Record</t>
   </si>
@@ -6242,39 +6242,27 @@
     <t>3172297310</t>
   </si>
   <si>
-    <t>3829235241</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Seifert</t>
+    <t>3172361840</t>
+  </si>
+  <si>
+    <t>20500101</t>
+  </si>
+  <si>
+    <t>Henry 'Alf'</t>
+  </si>
+  <si>
+    <t>Badgett</t>
+  </si>
+  <si>
+    <t>PrimeStar® Access</t>
+  </si>
+  <si>
+    <t>3172392051</t>
   </si>
   <si>
     <t>PrimeStar® Total</t>
   </si>
   <si>
-    <t>01-15-2023</t>
-  </si>
-  <si>
-    <t>3172361840</t>
-  </si>
-  <si>
-    <t>20500101</t>
-  </si>
-  <si>
-    <t>Henry 'Alf'</t>
-  </si>
-  <si>
-    <t>Badgett</t>
-  </si>
-  <si>
-    <t>PrimeStar® Access</t>
-  </si>
-  <si>
-    <t>3172392051</t>
-  </si>
-  <si>
     <t>3172287877</t>
   </si>
   <si>
@@ -6293,9 +6281,6 @@
     <t>3697095495</t>
   </si>
   <si>
-    <t>3172322153</t>
-  </si>
-  <si>
     <t>3172361843</t>
   </si>
   <si>
@@ -6441,9 +6426,6 @@
   </si>
   <si>
     <t>3172447124</t>
-  </si>
-  <si>
-    <t>3172362017</t>
   </si>
   <si>
     <t>3172322118</t>
@@ -7042,12 +7024,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="B2" s="2">
         <v>248</v>
@@ -7055,7 +7037,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="B3" s="2">
         <v>398</v>
@@ -7063,18 +7045,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -7083,7 +7065,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -7091,30 +7073,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -7123,12 +7105,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="B12" s="2">
         <v>102</v>
@@ -7136,7 +7118,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -7144,20 +7126,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -7166,12 +7148,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="B20">
         <v>45</v>
@@ -7179,15 +7161,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="B21">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7195,7 +7177,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -7204,7 +7186,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -7213,7 +7195,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -7221,7 +7203,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -7229,7 +7211,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -7237,7 +7219,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -7246,7 +7228,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -8487,7 +8469,7 @@
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>19</v>
@@ -8520,7 +8502,7 @@
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>19</v>
@@ -8689,7 +8671,7 @@
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>19</v>
@@ -8856,7 +8838,7 @@
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>19</v>
@@ -9375,7 +9357,7 @@
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>19</v>
@@ -9408,7 +9390,7 @@
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>19</v>
@@ -9641,7 +9623,7 @@
       </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>19</v>
@@ -9674,7 +9656,7 @@
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>19</v>
@@ -9707,7 +9689,7 @@
       </c>
       <c r="F133" s="8"/>
       <c r="G133" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>19</v>
@@ -9740,7 +9722,7 @@
       </c>
       <c r="F135" s="8"/>
       <c r="G135" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>19</v>
@@ -10585,7 +10567,7 @@
       </c>
       <c r="F184" s="8"/>
       <c r="G184" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>19</v>
@@ -10618,7 +10600,7 @@
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>19</v>
@@ -25860,7 +25842,7 @@
         <v>19</v>
       </c>
       <c r="L549" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M549" t="s">
         <v>194</v>
@@ -25869,7 +25851,7 @@
         <v>42</v>
       </c>
       <c r="Q549" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S549" s="10" t="s">
         <v>524</v>
@@ -26260,7 +26242,7 @@
         <v>19</v>
       </c>
       <c r="L565" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M565" t="s">
         <v>421</v>
@@ -26269,7 +26251,7 @@
         <v>21</v>
       </c>
       <c r="Q565" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S565" s="10" t="s">
         <v>524</v>
@@ -26954,7 +26936,7 @@
         <v>19</v>
       </c>
       <c r="L591" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M591" t="s">
         <v>119</v>
@@ -26963,7 +26945,7 @@
         <v>42</v>
       </c>
       <c r="Q591" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S591" s="10" t="s">
         <v>524</v>
@@ -27151,7 +27133,7 @@
         <v>19</v>
       </c>
       <c r="L598" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M598" t="s">
         <v>119</v>
@@ -27160,7 +27142,7 @@
         <v>21</v>
       </c>
       <c r="Q598" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S598" s="10" t="s">
         <v>524</v>
@@ -27907,7 +27889,7 @@
         <v>19</v>
       </c>
       <c r="L628" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M628" t="s">
         <v>172</v>
@@ -27916,7 +27898,7 @@
         <v>21</v>
       </c>
       <c r="Q628" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S628" s="10" t="s">
         <v>524</v>
@@ -30622,7 +30604,7 @@
         <v>19</v>
       </c>
       <c r="L734" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M734" t="s">
         <v>297</v>
@@ -30631,7 +30613,7 @@
         <v>21</v>
       </c>
       <c r="Q734" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S734" s="10" t="s">
         <v>524</v>
@@ -30922,7 +30904,7 @@
         <v>19</v>
       </c>
       <c r="L746" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M746" t="s">
         <v>421</v>
@@ -30931,7 +30913,7 @@
         <v>21</v>
       </c>
       <c r="Q746" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S746" s="10" t="s">
         <v>524</v>
@@ -31928,7 +31910,7 @@
         <v>19</v>
       </c>
       <c r="L786" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M786" t="s">
         <v>297</v>
@@ -31937,7 +31919,7 @@
         <v>21</v>
       </c>
       <c r="Q786" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S786" s="10" t="s">
         <v>524</v>
@@ -31978,7 +31960,7 @@
         <v>19</v>
       </c>
       <c r="L788" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M788" t="s">
         <v>297</v>
@@ -31987,7 +31969,7 @@
         <v>21</v>
       </c>
       <c r="Q788" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S788" s="10" t="s">
         <v>524</v>
@@ -32384,7 +32366,7 @@
         <v>19</v>
       </c>
       <c r="L804" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M804" t="s">
         <v>212</v>
@@ -32393,7 +32375,7 @@
         <v>21</v>
       </c>
       <c r="Q804" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S804" s="10" t="s">
         <v>524</v>
@@ -32434,7 +32416,7 @@
         <v>19</v>
       </c>
       <c r="L806" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M806" t="s">
         <v>172</v>
@@ -32443,7 +32425,7 @@
         <v>42</v>
       </c>
       <c r="Q806" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S806" s="10" t="s">
         <v>524</v>
@@ -33287,7 +33269,7 @@
         <v>19</v>
       </c>
       <c r="L839" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M839" t="s">
         <v>297</v>
@@ -33296,7 +33278,7 @@
         <v>42</v>
       </c>
       <c r="Q839" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S839" s="10" t="s">
         <v>524</v>
@@ -34842,7 +34824,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T154"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35044,19 +35026,19 @@
         <v>2073</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>568</v>
+        <v>2074</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>569</v>
+        <v>2075</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>570</v>
+        <v>2076</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>2074</v>
+        <v>518</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>2075</v>
+        <v>519</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>518</v>
@@ -35068,7 +35050,7 @@
         <v>2068</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="K8" t="s">
         <v>2070</v>
@@ -35077,10 +35059,10 @@
         <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>234</v>
+        <v>1041</v>
       </c>
       <c r="N8" t="s">
-        <v>2077</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -35088,13 +35070,13 @@
         <v>2078</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2079</v>
+        <v>573</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2080</v>
+        <v>574</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>2081</v>
+        <v>575</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>518</v>
@@ -35112,7 +35094,7 @@
         <v>2068</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="K10" t="s">
         <v>2070</v>
@@ -35121,24 +35103,24 @@
         <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>1041</v>
+        <v>675</v>
       </c>
       <c r="N10" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>518</v>
@@ -35156,7 +35138,7 @@
         <v>2068</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K12" t="s">
         <v>2070</v>
@@ -35165,24 +35147,24 @@
         <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>675</v>
+        <v>970</v>
       </c>
       <c r="N12" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>581</v>
+        <v>150</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>518</v>
@@ -35199,9 +35181,6 @@
       <c r="I14" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>2076</v>
-      </c>
       <c r="K14" t="s">
         <v>2070</v>
       </c>
@@ -35209,24 +35188,24 @@
         <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>970</v>
+        <v>2017</v>
       </c>
       <c r="N14" t="s">
-        <v>584</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>592</v>
+        <v>160</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>518</v>
@@ -35243,6 +35222,9 @@
       <c r="I16" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J16" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K16" t="s">
         <v>2070</v>
       </c>
@@ -35250,24 +35232,24 @@
         <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>2017</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>767</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>159</v>
+        <v>619</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>518</v>
@@ -35285,7 +35267,7 @@
         <v>2068</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K18" t="s">
         <v>2070</v>
@@ -35294,24 +35276,24 @@
         <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>655</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>618</v>
+        <v>1551</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>620</v>
+        <v>1552</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>518</v>
@@ -35329,33 +35311,36 @@
         <v>2068</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K20" t="s">
         <v>2070</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>655</v>
+        <v>1445</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>551</v>
+      </c>
+      <c r="P20" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1551</v>
+        <v>639</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>649</v>
+        <v>115</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1552</v>
+        <v>116</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>518</v>
@@ -35373,36 +35358,33 @@
         <v>2068</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K22" t="s">
         <v>2070</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>1445</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>551</v>
-      </c>
-      <c r="P22" t="s">
-        <v>595</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>115</v>
+        <v>649</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>116</v>
+        <v>650</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>518</v>
@@ -35426,33 +35408,36 @@
         <v>2070</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s">
-        <v>139</v>
+        <v>2087</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>584</v>
+      </c>
+      <c r="P24" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>2074</v>
+        <v>518</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>2075</v>
+        <v>519</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>518</v>
@@ -35470,24 +35455,24 @@
         <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
       <c r="N26" t="s">
-        <v>584</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>649</v>
+        <v>210</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>518</v>
@@ -35505,36 +35490,33 @@
         <v>2068</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K28" t="s">
         <v>2070</v>
       </c>
       <c r="L28" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>2092</v>
+        <v>1041</v>
       </c>
       <c r="N28" t="s">
-        <v>584</v>
-      </c>
-      <c r="P28" t="s">
-        <v>595</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>653</v>
+        <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>654</v>
+        <v>376</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>518</v>
@@ -35551,31 +35533,34 @@
       <c r="I30" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J30" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K30" t="s">
         <v>2070</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>655</v>
+        <v>421</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>518</v>
@@ -35593,7 +35578,7 @@
         <v>2068</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="K32" t="s">
         <v>2070</v>
@@ -35602,7 +35587,7 @@
         <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>1041</v>
+        <v>670</v>
       </c>
       <c r="N32" t="s">
         <v>37</v>
@@ -35610,16 +35595,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>518</v>
@@ -35637,33 +35622,33 @@
         <v>2068</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K34" t="s">
         <v>2070</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>421</v>
+        <v>1041</v>
       </c>
       <c r="N34" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>303</v>
+        <v>721</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>669</v>
+        <v>722</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>518</v>
@@ -35681,7 +35666,7 @@
         <v>2068</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="K36" t="s">
         <v>2070</v>
@@ -35690,24 +35675,24 @@
         <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>337</v>
+        <v>734</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>211</v>
+        <v>735</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>518</v>
@@ -35725,7 +35710,7 @@
         <v>2068</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="K38" t="s">
         <v>2070</v>
@@ -35734,24 +35719,24 @@
         <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>1041</v>
+        <v>675</v>
       </c>
       <c r="N38" t="s">
-        <v>37</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>720</v>
+        <v>2096</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>721</v>
+        <v>642</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>518</v>
@@ -35769,7 +35754,7 @@
         <v>2068</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K40" t="s">
         <v>2070</v>
@@ -35778,24 +35763,24 @@
         <v>35</v>
       </c>
       <c r="M40" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="N40" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>734</v>
+        <v>372</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>518</v>
@@ -35812,9 +35797,6 @@
       <c r="I42" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>2082</v>
-      </c>
       <c r="K42" t="s">
         <v>2070</v>
       </c>
@@ -35822,24 +35804,24 @@
         <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>675</v>
+        <v>2098</v>
       </c>
       <c r="N42" t="s">
-        <v>563</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2101</v>
+        <v>776</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>642</v>
+        <v>777</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>518</v>
@@ -35857,7 +35839,7 @@
         <v>2068</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K44" t="s">
         <v>2070</v>
@@ -35866,24 +35848,24 @@
         <v>35</v>
       </c>
       <c r="M44" t="s">
-        <v>675</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s">
-        <v>563</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>372</v>
+        <v>787</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>518</v>
@@ -35900,6 +35882,9 @@
       <c r="I46" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J46" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K46" t="s">
         <v>2070</v>
       </c>
@@ -35907,24 +35892,24 @@
         <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>2103</v>
+        <v>789</v>
       </c>
       <c r="N46" t="s">
-        <v>767</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>518</v>
@@ -35942,7 +35927,7 @@
         <v>2068</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K48" t="s">
         <v>2070</v>
@@ -35951,24 +35936,24 @@
         <v>35</v>
       </c>
       <c r="M48" t="s">
-        <v>334</v>
+        <v>812</v>
       </c>
       <c r="N48" t="s">
-        <v>42</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>786</v>
+        <v>843</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>518</v>
@@ -35986,7 +35971,7 @@
         <v>2068</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="K50" t="s">
         <v>2070</v>
@@ -35995,24 +35980,24 @@
         <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>789</v>
+        <v>1469</v>
       </c>
       <c r="N50" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>809</v>
+        <v>864</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>811</v>
+        <v>248</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>518</v>
@@ -36039,24 +36024,24 @@
         <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>812</v>
+        <v>194</v>
       </c>
       <c r="N52" t="s">
-        <v>626</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>518</v>
@@ -36074,7 +36059,7 @@
         <v>2068</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="K54" t="s">
         <v>2070</v>
@@ -36083,24 +36068,24 @@
         <v>35</v>
       </c>
       <c r="M54" t="s">
-        <v>1469</v>
+        <v>2105</v>
       </c>
       <c r="N54" t="s">
-        <v>626</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="7" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>518</v>
@@ -36118,7 +36103,7 @@
         <v>2068</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K56" t="s">
         <v>2070</v>
@@ -36127,24 +36112,24 @@
         <v>35</v>
       </c>
       <c r="M56" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="N56" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>883</v>
+        <v>910</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>884</v>
+        <v>300</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>885</v>
+        <v>123</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>518</v>
@@ -36162,7 +36147,7 @@
         <v>2068</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K58" t="s">
         <v>2070</v>
@@ -36171,24 +36156,24 @@
         <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>2110</v>
+        <v>297</v>
       </c>
       <c r="N58" t="s">
-        <v>767</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>59</v>
+        <v>569</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>60</v>
+        <v>922</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>518</v>
@@ -36206,7 +36191,7 @@
         <v>2068</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K60" t="s">
         <v>2070</v>
@@ -36215,24 +36200,24 @@
         <v>35</v>
       </c>
       <c r="M60" t="s">
-        <v>25</v>
+        <v>727</v>
       </c>
       <c r="N60" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>910</v>
+        <v>935</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>123</v>
+        <v>936</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>518</v>
@@ -36250,7 +36235,7 @@
         <v>2068</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="K62" t="s">
         <v>2070</v>
@@ -36259,24 +36244,24 @@
         <v>35</v>
       </c>
       <c r="M62" t="s">
-        <v>297</v>
+        <v>698</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>921</v>
+        <v>1006</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>569</v>
+        <v>1007</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>922</v>
+        <v>1008</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>518</v>
@@ -36294,7 +36279,7 @@
         <v>2068</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K64" t="s">
         <v>2070</v>
@@ -36303,7 +36288,7 @@
         <v>35</v>
       </c>
       <c r="M64" t="s">
-        <v>727</v>
+        <v>1009</v>
       </c>
       <c r="N64" t="s">
         <v>21</v>
@@ -36311,16 +36296,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="7" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>935</v>
+        <v>1011</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>418</v>
+        <v>1012</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>936</v>
+        <v>1008</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>518</v>
@@ -36338,7 +36323,7 @@
         <v>2068</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>2082</v>
+        <v>2069</v>
       </c>
       <c r="K66" t="s">
         <v>2070</v>
@@ -36347,24 +36332,24 @@
         <v>35</v>
       </c>
       <c r="M66" t="s">
-        <v>698</v>
+        <v>1009</v>
       </c>
       <c r="N66" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="7" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1007</v>
+        <v>115</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>518</v>
@@ -36382,33 +36367,36 @@
         <v>2068</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K68" t="s">
         <v>2070</v>
       </c>
       <c r="L68" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="M68" t="s">
-        <v>1009</v>
+        <v>545</v>
       </c>
       <c r="N68" t="s">
         <v>21</v>
       </c>
+      <c r="P68" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="7" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>518</v>
@@ -36426,7 +36414,7 @@
         <v>2068</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>2069</v>
+        <v>2114</v>
       </c>
       <c r="K70" t="s">
         <v>2070</v>
@@ -36435,24 +36423,24 @@
         <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>1009</v>
+        <v>812</v>
       </c>
       <c r="N70" t="s">
-        <v>21</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="7" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>115</v>
+        <v>478</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>518</v>
@@ -36470,36 +36458,33 @@
         <v>2068</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K72" t="s">
         <v>2070</v>
       </c>
       <c r="L72" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M72" t="s">
-        <v>545</v>
+        <v>2087</v>
       </c>
       <c r="N72" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" t="s">
-        <v>131</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="7" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1022</v>
+        <v>1051</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1023</v>
+        <v>587</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>518</v>
@@ -36517,7 +36502,7 @@
         <v>2068</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>2119</v>
+        <v>2079</v>
       </c>
       <c r="K74" t="s">
         <v>2070</v>
@@ -36526,24 +36511,24 @@
         <v>35</v>
       </c>
       <c r="M74" t="s">
-        <v>812</v>
+        <v>583</v>
       </c>
       <c r="N74" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="7" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>478</v>
+        <v>86</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>518</v>
@@ -36561,7 +36546,7 @@
         <v>2068</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K76" t="s">
         <v>2070</v>
@@ -36570,7 +36555,7 @@
         <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>2092</v>
+        <v>583</v>
       </c>
       <c r="N76" t="s">
         <v>584</v>
@@ -36578,16 +36563,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="7" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1051</v>
+        <v>2119</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>587</v>
+        <v>1309</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1052</v>
+        <v>2120</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>518</v>
@@ -36605,7 +36590,7 @@
         <v>2068</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K78" t="s">
         <v>2070</v>
@@ -36614,24 +36599,24 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>583</v>
+        <v>1156</v>
       </c>
       <c r="N78" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="7" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1054</v>
+        <v>1105</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1052</v>
+        <v>1106</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>518</v>
@@ -36649,7 +36634,7 @@
         <v>2068</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K80" t="s">
         <v>2070</v>
@@ -36658,24 +36643,24 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>583</v>
+        <v>1107</v>
       </c>
       <c r="N80" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>2124</v>
+        <v>1119</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1309</v>
+        <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>2125</v>
+        <v>1120</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>518</v>
@@ -36693,7 +36678,7 @@
         <v>2068</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K82" t="s">
         <v>2070</v>
@@ -36702,24 +36687,24 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>1156</v>
+        <v>675</v>
       </c>
       <c r="N82" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1105</v>
+        <v>1132</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>150</v>
+        <v>951</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1106</v>
+        <v>1133</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>518</v>
@@ -36737,7 +36722,7 @@
         <v>2068</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K84" t="s">
         <v>2070</v>
@@ -36746,24 +36731,24 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>1107</v>
+        <v>583</v>
       </c>
       <c r="N84" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1119</v>
+        <v>2125</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>81</v>
+        <v>2126</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1120</v>
+        <v>1902</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>518</v>
@@ -36781,7 +36766,7 @@
         <v>2068</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K86" t="s">
         <v>2070</v>
@@ -36790,24 +36775,24 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>675</v>
+        <v>1692</v>
       </c>
       <c r="N86" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>951</v>
+        <v>1151</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1133</v>
+        <v>1152</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>518</v>
@@ -36825,7 +36810,7 @@
         <v>2068</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K88" t="s">
         <v>2070</v>
@@ -36834,24 +36819,24 @@
         <v>35</v>
       </c>
       <c r="M88" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="N88" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>2130</v>
+        <v>1160</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2131</v>
+        <v>1161</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1902</v>
+        <v>1162</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>518</v>
@@ -36869,7 +36854,7 @@
         <v>2068</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K90" t="s">
         <v>2070</v>
@@ -36878,24 +36863,24 @@
         <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>1692</v>
+        <v>1009</v>
       </c>
       <c r="N90" t="s">
-        <v>563</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1150</v>
+        <v>1183</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1151</v>
+        <v>1184</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1152</v>
+        <v>1185</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>518</v>
@@ -36930,16 +36915,16 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1160</v>
+        <v>1189</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1161</v>
+        <v>303</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1162</v>
+        <v>304</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>518</v>
@@ -36957,7 +36942,7 @@
         <v>2068</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K94" t="s">
         <v>2070</v>
@@ -36966,7 +36951,7 @@
         <v>35</v>
       </c>
       <c r="M94" t="s">
-        <v>1009</v>
+        <v>172</v>
       </c>
       <c r="N94" t="s">
         <v>21</v>
@@ -36974,16 +36959,16 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1184</v>
+        <v>493</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1185</v>
+        <v>304</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>518</v>
@@ -37010,24 +36995,24 @@
         <v>35</v>
       </c>
       <c r="M96" t="s">
-        <v>655</v>
+        <v>2132</v>
       </c>
       <c r="N96" t="s">
-        <v>21</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1189</v>
+        <v>1221</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>303</v>
+        <v>1218</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>304</v>
+        <v>1222</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>518</v>
@@ -37045,7 +37030,7 @@
         <v>2068</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K98" t="s">
         <v>2070</v>
@@ -37054,24 +37039,24 @@
         <v>35</v>
       </c>
       <c r="M98" t="s">
-        <v>172</v>
+        <v>953</v>
       </c>
       <c r="N98" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1187</v>
+        <v>1262</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>493</v>
+        <v>1232</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>304</v>
+        <v>1263</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>518</v>
@@ -37088,9 +37073,6 @@
       <c r="I100" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>2069</v>
-      </c>
       <c r="K100" t="s">
         <v>2070</v>
       </c>
@@ -37098,24 +37080,24 @@
         <v>35</v>
       </c>
       <c r="M100" t="s">
-        <v>2137</v>
+        <v>659</v>
       </c>
       <c r="N100" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1221</v>
+        <v>1290</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1218</v>
+        <v>237</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1222</v>
+        <v>1291</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>518</v>
@@ -37132,9 +37114,6 @@
       <c r="I102" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>2076</v>
-      </c>
       <c r="K102" t="s">
         <v>2070</v>
       </c>
@@ -37142,24 +37121,24 @@
         <v>35</v>
       </c>
       <c r="M102" t="s">
-        <v>953</v>
+        <v>576</v>
       </c>
       <c r="N102" t="s">
-        <v>42</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1262</v>
+        <v>1316</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1232</v>
+        <v>337</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1263</v>
+        <v>1317</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>518</v>
@@ -37176,6 +37155,9 @@
       <c r="I104" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J104" s="8" t="s">
+        <v>2069</v>
+      </c>
       <c r="K104" t="s">
         <v>2070</v>
       </c>
@@ -37183,30 +37165,30 @@
         <v>35</v>
       </c>
       <c r="M104" t="s">
-        <v>659</v>
+        <v>1004</v>
       </c>
       <c r="N104" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1269</v>
+        <v>1320</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>386</v>
+        <v>800</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1270</v>
+        <v>1321</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>2074</v>
+        <v>518</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>2075</v>
+        <v>519</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>518</v>
@@ -37217,6 +37199,9 @@
       <c r="I106" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J106" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K106" t="s">
         <v>2070</v>
       </c>
@@ -37224,24 +37209,24 @@
         <v>35</v>
       </c>
       <c r="M106" t="s">
-        <v>723</v>
+        <v>675</v>
       </c>
       <c r="N106" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>237</v>
+        <v>734</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1291</v>
+        <v>1332</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>518</v>
@@ -37258,6 +37243,9 @@
       <c r="I108" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J108" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K108" t="s">
         <v>2070</v>
       </c>
@@ -37265,24 +37253,24 @@
         <v>35</v>
       </c>
       <c r="M108" t="s">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="N108" t="s">
-        <v>767</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1316</v>
+        <v>1348</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>337</v>
+        <v>1349</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1317</v>
+        <v>1350</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>518</v>
@@ -37300,33 +37288,33 @@
         <v>2068</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K110" t="s">
         <v>2070</v>
       </c>
       <c r="L110" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>1004</v>
+        <v>421</v>
       </c>
       <c r="N110" t="s">
-        <v>584</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1320</v>
+        <v>1352</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1321</v>
+        <v>1353</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>518</v>
@@ -37344,7 +37332,7 @@
         <v>2068</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K112" t="s">
         <v>2070</v>
@@ -37353,24 +37341,24 @@
         <v>35</v>
       </c>
       <c r="M112" t="s">
-        <v>675</v>
+        <v>1215</v>
       </c>
       <c r="N112" t="s">
-        <v>557</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1331</v>
+        <v>1371</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>734</v>
+        <v>844</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1332</v>
+        <v>1372</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>518</v>
@@ -37388,7 +37376,7 @@
         <v>2068</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K114" t="s">
         <v>2070</v>
@@ -37397,24 +37385,24 @@
         <v>35</v>
       </c>
       <c r="M114" t="s">
-        <v>50</v>
+        <v>2087</v>
       </c>
       <c r="N114" t="s">
-        <v>21</v>
+        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1348</v>
+        <v>1379</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1349</v>
+        <v>1380</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1350</v>
+        <v>1381</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>518</v>
@@ -37432,33 +37420,33 @@
         <v>2068</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K116" t="s">
         <v>2070</v>
       </c>
       <c r="L116" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M116" t="s">
-        <v>421</v>
+        <v>50</v>
       </c>
       <c r="N116" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1352</v>
+        <v>1388</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>210</v>
+        <v>1389</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1353</v>
+        <v>1390</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>518</v>
@@ -37476,7 +37464,7 @@
         <v>2068</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K118" t="s">
         <v>2070</v>
@@ -37488,21 +37476,21 @@
         <v>1215</v>
       </c>
       <c r="N118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1371</v>
+        <v>1392</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>844</v>
+        <v>574</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>518</v>
@@ -37520,7 +37508,7 @@
         <v>2068</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="K120" t="s">
         <v>2070</v>
@@ -37529,24 +37517,24 @@
         <v>35</v>
       </c>
       <c r="M120" t="s">
-        <v>2092</v>
+        <v>1215</v>
       </c>
       <c r="N120" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1379</v>
+        <v>1411</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1380</v>
+        <v>1412</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1381</v>
+        <v>1413</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>518</v>
@@ -37564,7 +37552,7 @@
         <v>2068</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K122" t="s">
         <v>2070</v>
@@ -37573,24 +37561,24 @@
         <v>35</v>
       </c>
       <c r="M122" t="s">
-        <v>50</v>
+        <v>1004</v>
       </c>
       <c r="N122" t="s">
-        <v>37</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1388</v>
+        <v>1419</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>1389</v>
+        <v>1420</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1390</v>
+        <v>1417</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>518</v>
@@ -37608,7 +37596,7 @@
         <v>2068</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K124" t="s">
         <v>2070</v>
@@ -37617,24 +37605,24 @@
         <v>35</v>
       </c>
       <c r="M124" t="s">
-        <v>1215</v>
+        <v>970</v>
       </c>
       <c r="N124" t="s">
-        <v>42</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1392</v>
+        <v>1415</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>574</v>
+        <v>1416</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1390</v>
+        <v>1417</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>518</v>
@@ -37661,24 +37649,24 @@
         <v>35</v>
       </c>
       <c r="M126" t="s">
-        <v>1215</v>
+        <v>970</v>
       </c>
       <c r="N126" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1411</v>
+        <v>1433</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1412</v>
+        <v>219</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1413</v>
+        <v>100</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>518</v>
@@ -37696,7 +37684,7 @@
         <v>2068</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K128" t="s">
         <v>2070</v>
@@ -37705,24 +37693,24 @@
         <v>35</v>
       </c>
       <c r="M128" t="s">
-        <v>1004</v>
+        <v>595</v>
       </c>
       <c r="N128" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="7" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1419</v>
+        <v>1437</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1420</v>
+        <v>276</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1417</v>
+        <v>277</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>518</v>
@@ -37740,33 +37728,39 @@
         <v>2068</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K130" t="s">
         <v>2070</v>
       </c>
       <c r="L130" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="M130" t="s">
-        <v>970</v>
+        <v>56</v>
       </c>
       <c r="N130" t="s">
-        <v>551</v>
+        <v>21</v>
+      </c>
+      <c r="O130" t="s">
+        <v>240</v>
+      </c>
+      <c r="P130" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="7" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1415</v>
+        <v>1442</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>1416</v>
+        <v>1443</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1417</v>
+        <v>1444</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>518</v>
@@ -37793,24 +37787,24 @@
         <v>35</v>
       </c>
       <c r="M132" t="s">
-        <v>970</v>
+        <v>1445</v>
       </c>
       <c r="N132" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="7" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1433</v>
+        <v>1452</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>219</v>
+        <v>754</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>518</v>
@@ -37827,9 +37821,6 @@
       <c r="I134" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J134" s="8" t="s">
-        <v>2076</v>
-      </c>
       <c r="K134" t="s">
         <v>2070</v>
       </c>
@@ -37837,24 +37828,24 @@
         <v>35</v>
       </c>
       <c r="M134" t="s">
-        <v>595</v>
+        <v>698</v>
       </c>
       <c r="N134" t="s">
-        <v>21</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="7" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1437</v>
+        <v>1455</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>277</v>
+        <v>1456</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>518</v>
@@ -37872,39 +37863,33 @@
         <v>2068</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K136" t="s">
         <v>2070</v>
       </c>
       <c r="L136" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M136" t="s">
-        <v>56</v>
+        <v>1373</v>
       </c>
       <c r="N136" t="s">
-        <v>21</v>
-      </c>
-      <c r="O136" t="s">
-        <v>240</v>
-      </c>
-      <c r="P136" t="s">
-        <v>131</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="7" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1442</v>
+        <v>1471</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1443</v>
+        <v>337</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1444</v>
+        <v>338</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>518</v>
@@ -37922,7 +37907,7 @@
         <v>2068</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>2069</v>
+        <v>2079</v>
       </c>
       <c r="K138" t="s">
         <v>2070</v>
@@ -37931,24 +37916,24 @@
         <v>35</v>
       </c>
       <c r="M138" t="s">
-        <v>1445</v>
+        <v>355</v>
       </c>
       <c r="N138" t="s">
-        <v>551</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="7" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>754</v>
+        <v>363</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>454</v>
+        <v>338</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>518</v>
@@ -37965,6 +37950,9 @@
       <c r="I140" s="8" t="s">
         <v>2068</v>
       </c>
+      <c r="J140" s="8" t="s">
+        <v>2079</v>
+      </c>
       <c r="K140" t="s">
         <v>2070</v>
       </c>
@@ -37972,24 +37960,24 @@
         <v>35</v>
       </c>
       <c r="M140" t="s">
-        <v>698</v>
+        <v>355</v>
       </c>
       <c r="N140" t="s">
-        <v>584</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="7" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>1455</v>
+        <v>1487</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1456</v>
+        <v>198</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>518</v>
@@ -38007,7 +37995,7 @@
         <v>2068</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K142" t="s">
         <v>2070</v>
@@ -38016,24 +38004,24 @@
         <v>35</v>
       </c>
       <c r="M142" t="s">
-        <v>1373</v>
+        <v>245</v>
       </c>
       <c r="N142" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="7" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1471</v>
+        <v>1489</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>337</v>
+        <v>1490</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>338</v>
+        <v>1491</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>518</v>
@@ -38051,7 +38039,7 @@
         <v>2068</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K144" t="s">
         <v>2070</v>
@@ -38060,24 +38048,24 @@
         <v>35</v>
       </c>
       <c r="M144" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="N144" t="s">
-        <v>140</v>
+        <v>551</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1473</v>
+        <v>1498</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>363</v>
+        <v>1499</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>338</v>
+        <v>1500</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>518</v>
@@ -38094,9 +38082,6 @@
       <c r="I146" s="8" t="s">
         <v>2068</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>2076</v>
-      </c>
       <c r="K146" t="s">
         <v>2070</v>
       </c>
@@ -38104,24 +38089,24 @@
         <v>35</v>
       </c>
       <c r="M146" t="s">
-        <v>355</v>
+        <v>670</v>
       </c>
       <c r="N146" t="s">
-        <v>140</v>
+        <v>584</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1487</v>
+        <v>1503</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>197</v>
+        <v>1504</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>198</v>
+        <v>1505</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>518</v>
@@ -38139,7 +38124,7 @@
         <v>2068</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="K148" t="s">
         <v>2070</v>
@@ -38148,138 +38133,9 @@
         <v>35</v>
       </c>
       <c r="M148" t="s">
-        <v>245</v>
+        <v>853</v>
       </c>
       <c r="N148" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="7" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H150" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>2068</v>
-      </c>
-      <c r="J150" s="8" t="s">
-        <v>2076</v>
-      </c>
-      <c r="K150" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L150" t="s">
-        <v>35</v>
-      </c>
-      <c r="M150" t="s">
-        <v>308</v>
-      </c>
-      <c r="N150" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" s="7" t="s">
-        <v>2163</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="I152" s="8" t="s">
-        <v>2068</v>
-      </c>
-      <c r="K152" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L152" t="s">
-        <v>35</v>
-      </c>
-      <c r="M152" t="s">
-        <v>670</v>
-      </c>
-      <c r="N152" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="7" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>2068</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>2076</v>
-      </c>
-      <c r="K154" t="s">
-        <v>2070</v>
-      </c>
-      <c r="L154" t="s">
-        <v>35</v>
-      </c>
-      <c r="M154" t="s">
-        <v>853</v>
-      </c>
-      <c r="N154" t="s">
         <v>21</v>
       </c>
     </row>
@@ -38433,12 +38289,6 @@
     <hyperlink ref="B146" r:id="rId146"/>
     <hyperlink ref="A148" r:id="rId147"/>
     <hyperlink ref="B148" r:id="rId148"/>
-    <hyperlink ref="A150" r:id="rId149"/>
-    <hyperlink ref="B150" r:id="rId150"/>
-    <hyperlink ref="A152" r:id="rId151"/>
-    <hyperlink ref="B152" r:id="rId152"/>
-    <hyperlink ref="A154" r:id="rId153"/>
-    <hyperlink ref="B154" r:id="rId154"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38519,7 +38369,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1559</v>
@@ -38543,10 +38393,10 @@
         <v>519</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K2" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
@@ -38560,7 +38410,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1564</v>
@@ -38584,10 +38434,10 @@
         <v>519</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K4" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
@@ -38601,7 +38451,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1759</v>
@@ -38625,10 +38475,10 @@
         <v>519</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K6" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
@@ -38639,7 +38489,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1981</v>
@@ -38663,10 +38513,10 @@
         <v>519</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K8" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -38680,7 +38530,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>1986</v>
@@ -38704,10 +38554,10 @@
         <v>519</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K10" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -38721,7 +38571,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2045</v>
@@ -38745,10 +38595,10 @@
         <v>519</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="K12" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>

--- a/excel_reports/Ken_Tomberlin.xlsx
+++ b/excel_reports/Ken_Tomberlin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10807" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10810" uniqueCount="2436">
   <si>
     <t>Policy Record</t>
   </si>
@@ -7244,10 +7244,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -7289,13 +7292,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -7310,7 +7316,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -7720,7 +7729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7758,25 +7767,25 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>2408</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>2410</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7784,62 +7793,70 @@
         <v>2411</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2413</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2415</v>
       </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>2416</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B13" s="2">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -7848,12 +7865,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="B20">
         <v>69</v>
@@ -7861,7 +7878,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="B21">
         <v>69</v>
@@ -7869,7 +7886,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7877,25 +7894,33 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>2426</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>2426</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -7903,7 +7928,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -7911,7 +7936,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -7919,19 +7944,27 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2430</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>2432</v>
+      </c>
+      <c r="B29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>2431</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+      <c r="A30" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -13617,7 +13650,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -39461,7 +39494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -43491,7 +43524,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
